--- a/biology/Médecine/Planmeca/Planmeca.xlsx
+++ b/biology/Médecine/Planmeca/Planmeca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Planmeca est un fabricant de technologies de soins dentaires basé dans le quartier d'Herttoniemi à Helsinki en Finlande[4].
+Planmeca est un fabricant de technologies de soins dentaires basé dans le quartier d'Herttoniemi à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Planmeca Oy est l'une des principales entreprises mondiales de fabrication de technologies de soins dentaires, dont les produits sont vendus dans environ 120 pays.
 L'entreprise familiale finlandaise fondée en 1971 fabrique, entre-autres. machines dentaires, appareils de radiographie 2D et 3D, logiciels et solutions CAD/CAM.
@@ -545,33 +559,350 @@
           <t>Organisation et filiales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les unités du groupes sont :
-Planmeca Oy
-Planmeca est la société-mère du Groupe Planmeca. Elle est spécialisée dans la conception et la fabrication d'équipements dentaires. La gamme de produits comprend des unités dentaires, des solutions CAD/CAM, des dispositifs d'imagerie 2D et 3D et des solutions logicielles.
-Planmed
-Fondée en 1989, Planmed Oy fabrique des équipements de mammographie.
-Plandent
-Fondée en 1972, Plandent Oy fournit des équipements dentaires, des instruments, des matériaux et des solutions de gestion du matériel, ainsi que des services d'installation et de maintenance.
-KaVo Dental
-KaVo Dental est un fabricant et un fournisseur reconnu d'équipements et d’instruments de soin dentaire et d’équipements de laboratoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Planmeca</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Planmeca</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation et filiales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Planmeca Oy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Planmeca est la société-mère du Groupe Planmeca. Elle est spécialisée dans la conception et la fabrication d'équipements dentaires. La gamme de produits comprend des unités dentaires, des solutions CAD/CAM, des dispositifs d'imagerie 2D et 3D et des solutions logicielles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Planmeca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Planmeca</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation et filiales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Planmed</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1989, Planmed Oy fabrique des équipements de mammographie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Planmeca</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Planmeca</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation et filiales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plandent</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1972, Plandent Oy fournit des équipements dentaires, des instruments, des matériaux et des solutions de gestion du matériel, ainsi que des services d'installation et de maintenance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Planmeca</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Planmeca</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Organisation et filiales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>KaVo Dental</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KaVo Dental est un fabricant et un fournisseur reconnu d'équipements et d’instruments de soin dentaire et d’équipements de laboratoire.
 Achetéepar le groupe Planmeca en 2022, KaVo est basée à Biberach.
-LM-Instruments
-LM-Instruments Oy développe, fabrique et commercialise des instruments à main dentaires, ainsi que des appareils à ultra-sons et d’orthodontie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Planmeca</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Planmeca</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Organisation et filiales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LM-Instruments</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LM-Instruments Oy développe, fabrique et commercialise des instruments à main dentaires, ainsi que des appareils à ultra-sons et d’orthodontie.
 Fondée en 1973, LM-Instruments a été achetée par le Groupe Planmeca en 1999.
-Opus Systemer
-La société Opus Systemer AS développe des solutions logicielles complètes pour le marché dentaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Planmeca</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Planmeca</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Organisation et filiales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Opus Systemer</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société Opus Systemer AS développe des solutions logicielles complètes pour le marché dentaire.
 Son produit principal est Opus Dental, une solution de gestion de cabinet dentaire.
 Fondée en 1993, la société basée en Norvège a été acquise par le Groupe Planmeca en 2000.
-Triangle Furniture Systems
-Triangle Furniture Systems Inc. est un fabricant de mobilier de cabinet dentaire et de centres de stérilisation. L
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Planmeca</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Planmeca</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Organisation et filiales</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Triangle Furniture Systems</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Triangle Furniture Systems Inc. est un fabricant de mobilier de cabinet dentaire et de centres de stérilisation. L
 Fondée en 1979 et devenue une filiale de Planmeca en 2005, Triangle est basée à Montréal.
-Planmeca E4D Technologies
-E4D Technologies est fabricant d'équipement médical de pointe spécialisé dans les applications de numérisation 3D dentaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Planmeca</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Planmeca</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Organisation et filiales</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Planmeca E4D Technologies</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E4D Technologies est fabricant d'équipement médical de pointe spécialisé dans les applications de numérisation 3D dentaires.
 Basée à Richardson, E4D Technologies est rachetée partiellement par Planmeca en 2013.
-HeySmile
-HeySmile est un fabricant d'aligneurs basée à Málaga.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Planmeca</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Planmeca</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Organisation et filiales</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>HeySmile</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HeySmile est un fabricant d'aligneurs basée à Málaga.
 </t>
         </is>
       </c>
